--- a/数据包格式.xlsx
+++ b/数据包格式.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tongy\Dropbox\M5\V\单项固件\V单项固件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tongy\Dropbox\M5\V\Vfunc\Vfunction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F777ACAE-A6A8-424D-B372-A5FE2DF6C707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37102D97-79B2-4D88-B6B6-1CCF974B3790}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31886" yWindow="0" windowWidth="12000" windowHeight="18514" xr2:uid="{D2E1EF6A-A9FA-48AE-BBE1-4B573C8682A8}"/>
+    <workbookView xWindow="12000" yWindow="0" windowWidth="19886" windowHeight="18514" xr2:uid="{D2E1EF6A-A9FA-48AE-BBE1-4B573C8682A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="74">
   <si>
     <t>AA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,46 @@
   <si>
     <t>目标框合并阈值
 [0, 40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frame，当前帧计数，uint64_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w，图像宽度 uint16_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h，图像高度 uint16_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpeg图像质量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpeg图像大小，uint32_t字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20+len</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpeg图像数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMP图像数据，长度w*h*2+66</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -388,13 +428,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -470,34 +609,112 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -814,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC47ACF-3128-46A7-BEB0-C7C1DC5E0C09}">
-  <dimension ref="A1:Y34"/>
+  <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -910,45 +1127,45 @@
       <c r="D2" s="3">
         <v>55</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="30"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
       <c r="M2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32" t="s">
+      <c r="O2" s="29"/>
+      <c r="P2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32" t="s">
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32" t="s">
+      <c r="S2" s="29"/>
+      <c r="T2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32" t="s">
+      <c r="U2" s="29"/>
+      <c r="V2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="32"/>
+      <c r="W2" s="29"/>
       <c r="X2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1013,24 +1230,24 @@
       <c r="D5" s="3">
         <v>55</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="30"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31" t="s">
+      <c r="J5" s="27"/>
+      <c r="K5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="31"/>
+      <c r="L5" s="27"/>
       <c r="M5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1082,15 +1299,15 @@
       <c r="A7" s="33"/>
       <c r="B7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="33"/>
@@ -1128,10 +1345,10 @@
       <c r="D10" s="3">
         <v>55</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="30"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="8" t="s">
         <v>32</v>
       </c>
@@ -1194,32 +1411,32 @@
       <c r="D16" s="3">
         <v>55</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="30"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31" t="s">
+      <c r="J16" s="27"/>
+      <c r="K16" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31" t="s">
+      <c r="L16" s="27"/>
+      <c r="M16" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31" t="s">
+      <c r="N16" s="27"/>
+      <c r="O16" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="31"/>
+      <c r="P16" s="27"/>
       <c r="Q16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1266,32 +1483,32 @@
       <c r="D19" s="3">
         <v>55</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="30"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="31" t="s">
+      <c r="I19" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31" t="s">
+      <c r="J19" s="27"/>
+      <c r="K19" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31" t="s">
+      <c r="L19" s="27"/>
+      <c r="M19" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31" t="s">
+      <c r="N19" s="27"/>
+      <c r="O19" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P19" s="31"/>
+      <c r="P19" s="27"/>
       <c r="Q19" s="9" t="s">
         <v>12</v>
       </c>
@@ -1330,7 +1547,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="32" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="26" t="s">
@@ -1342,32 +1559,32 @@
       <c r="D22" s="3">
         <v>55</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="30"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H22" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32" t="s">
+      <c r="J22" s="29"/>
+      <c r="K22" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32" t="s">
+      <c r="L22" s="29"/>
+      <c r="M22" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32" t="s">
+      <c r="N22" s="29"/>
+      <c r="O22" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="P22" s="32"/>
+      <c r="P22" s="29"/>
       <c r="Q22" s="18" t="s">
         <v>46</v>
       </c>
@@ -1376,7 +1593,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A23" s="29"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26" t="s">
         <v>13</v>
@@ -1410,7 +1627,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="32" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="26" t="s">
@@ -1422,42 +1639,42 @@
       <c r="D25" s="3">
         <v>55</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="30"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H25" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25" t="s">
+      <c r="J25" s="30"/>
+      <c r="K25" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25" t="s">
+      <c r="L25" s="30"/>
+      <c r="M25" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25" t="s">
+      <c r="N25" s="30"/>
+      <c r="O25" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25" t="s">
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="R25" s="25"/>
+      <c r="R25" s="30"/>
       <c r="S25" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A26" s="29"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26" t="s">
         <v>13</v>
@@ -1492,10 +1709,10 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="29"/>
+      <c r="A27" s="32"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="29"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="26" t="s">
         <v>59</v>
       </c>
@@ -1505,10 +1722,10 @@
       <c r="D28" s="3">
         <v>55</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="30"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="8" t="s">
         <v>32</v>
       </c>
@@ -1538,7 +1755,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A29" s="29"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26" t="s">
         <v>13</v>
@@ -1554,24 +1771,24 @@
       <c r="H29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="27" t="s">
+      <c r="I29" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
       <c r="O29" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="29"/>
+      <c r="A30" s="32"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="29"/>
-      <c r="B31" s="27" t="s">
+      <c r="A31" s="32"/>
+      <c r="B31" s="34" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -1580,10 +1797,10 @@
       <c r="D31" s="3">
         <v>55</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="30"/>
+      <c r="F31" s="28"/>
       <c r="G31" s="8" t="s">
         <v>32</v>
       </c>
@@ -1610,8 +1827,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A32" s="29"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="26" t="s">
         <v>13</v>
       </c>
@@ -1626,14 +1843,14 @@
       <c r="H32" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I32" s="27" t="s">
+      <c r="I32" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J32" s="27"/>
+      <c r="J32" s="34"/>
       <c r="K32" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="L32" s="27"/>
+      <c r="L32" s="34"/>
       <c r="M32" s="23" t="s">
         <v>63</v>
       </c>
@@ -1641,16 +1858,16 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I33" s="28" t="s">
+    <row r="33" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="I33" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-    </row>
-    <row r="34" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+    </row>
+    <row r="34" spans="3:24" x14ac:dyDescent="0.35">
       <c r="I34" s="1">
         <v>20</v>
       </c>
@@ -1667,65 +1884,294 @@
         <v>10</v>
       </c>
     </row>
+    <row r="37" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C37" s="36">
+        <v>0</v>
+      </c>
+      <c r="D37" s="37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="37">
+        <v>2</v>
+      </c>
+      <c r="F37" s="37">
+        <v>3</v>
+      </c>
+      <c r="G37" s="38">
+        <v>4</v>
+      </c>
+      <c r="H37" s="38">
+        <v>5</v>
+      </c>
+      <c r="I37" s="38">
+        <v>6</v>
+      </c>
+      <c r="J37" s="38">
+        <v>7</v>
+      </c>
+      <c r="K37" s="38">
+        <v>8</v>
+      </c>
+      <c r="L37" s="38">
+        <v>9</v>
+      </c>
+      <c r="M37" s="38">
+        <v>10</v>
+      </c>
+      <c r="N37" s="38">
+        <v>11</v>
+      </c>
+      <c r="O37" s="39">
+        <v>12</v>
+      </c>
+      <c r="P37" s="39">
+        <v>13</v>
+      </c>
+      <c r="Q37" s="39">
+        <v>14</v>
+      </c>
+      <c r="R37" s="39">
+        <v>15</v>
+      </c>
+      <c r="S37" s="40">
+        <v>16</v>
+      </c>
+      <c r="T37" s="41">
+        <v>17</v>
+      </c>
+      <c r="U37" s="41">
+        <v>18</v>
+      </c>
+      <c r="V37" s="41">
+        <v>19</v>
+      </c>
+      <c r="W37" s="42">
+        <v>20</v>
+      </c>
+      <c r="X37" s="43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C38" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="45">
+        <v>55</v>
+      </c>
+      <c r="G38" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="R38" s="47"/>
+      <c r="S38" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="T38" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="U38" s="49"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C39" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="55"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="57"/>
+    </row>
+    <row r="42" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C42" s="36">
+        <v>0</v>
+      </c>
+      <c r="D42" s="37">
+        <v>1</v>
+      </c>
+      <c r="E42" s="37">
+        <v>2</v>
+      </c>
+      <c r="F42" s="37">
+        <v>3</v>
+      </c>
+      <c r="G42" s="38">
+        <v>4</v>
+      </c>
+      <c r="H42" s="38">
+        <v>5</v>
+      </c>
+      <c r="I42" s="38">
+        <v>6</v>
+      </c>
+      <c r="J42" s="38">
+        <v>7</v>
+      </c>
+      <c r="K42" s="38">
+        <v>8</v>
+      </c>
+      <c r="L42" s="38">
+        <v>9</v>
+      </c>
+      <c r="M42" s="38">
+        <v>10</v>
+      </c>
+      <c r="N42" s="38">
+        <v>11</v>
+      </c>
+      <c r="O42" s="39">
+        <v>12</v>
+      </c>
+      <c r="P42" s="39">
+        <v>13</v>
+      </c>
+      <c r="Q42" s="39">
+        <v>14</v>
+      </c>
+      <c r="R42" s="39">
+        <v>15</v>
+      </c>
+      <c r="S42" s="58">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C43" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="45">
+        <v>55</v>
+      </c>
+      <c r="E43" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="R43" s="47"/>
+      <c r="S43" s="59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C44" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="60"/>
+    </row>
+    <row r="45" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="N3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I20:P20"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="I23:P23"/>
-    <mergeCell ref="A1:A13"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="I17:P17"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K16:L16"/>
+  <mergeCells count="93">
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="X38:X39"/>
+    <mergeCell ref="G43:N44"/>
+    <mergeCell ref="O43:P44"/>
+    <mergeCell ref="Q43:R44"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="O38:P39"/>
+    <mergeCell ref="Q38:R39"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="T38:W39"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G38:N39"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="I26:P26"/>
+    <mergeCell ref="Q26:R26"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="I33:M33"/>
@@ -1742,14 +2188,63 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="I26:P26"/>
-    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="A1:A13"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="I17:P17"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I20:P20"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="I23:P23"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="N3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I16:J16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
